--- a/setsOfTaxaAndColors.xlsx
+++ b/setsOfTaxaAndColors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="7965" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Mycetozoa</t>
   </si>
@@ -189,6 +190,30 @@
   </si>
   <si>
     <t>Bony, ray-finned, lung fish</t>
+  </si>
+  <si>
+    <t>Chelicerata</t>
+  </si>
+  <si>
+    <t>Myriapoda</t>
+  </si>
+  <si>
+    <t>Hexapoda</t>
+  </si>
+  <si>
+    <t>Chelicerates</t>
+  </si>
+  <si>
+    <t>Myriapods</t>
+  </si>
+  <si>
+    <t>Crustacea</t>
+  </si>
+  <si>
+    <t>Crustaceans</t>
+  </si>
+  <si>
+    <t>Hexapods (includes insects)</t>
   </si>
 </sst>
 </file>
@@ -610,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -887,7 +912,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -932,4 +957,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/setsOfTaxaAndColors.xlsx
+++ b/setsOfTaxaAndColors.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="7965" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="7965" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>Mycetozoa</t>
   </si>
@@ -144,9 +145,6 @@
     <t>Insecta</t>
   </si>
   <si>
-    <t>Insects</t>
-  </si>
-  <si>
     <t>Primates</t>
   </si>
   <si>
@@ -192,28 +190,37 @@
     <t>Bony, ray-finned, lung fish</t>
   </si>
   <si>
-    <t>Chelicerata</t>
-  </si>
-  <si>
-    <t>Myriapoda</t>
-  </si>
-  <si>
-    <t>Hexapoda</t>
-  </si>
-  <si>
-    <t>Chelicerates</t>
-  </si>
-  <si>
-    <t>Myriapods</t>
-  </si>
-  <si>
-    <t>Crustacea</t>
-  </si>
-  <si>
-    <t>Crustaceans</t>
-  </si>
-  <si>
-    <t>Hexapods (includes insects)</t>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Class: Insects</t>
+  </si>
+  <si>
+    <t>Class: Amphibians</t>
+  </si>
+  <si>
+    <t>Diprotodontia</t>
+  </si>
+  <si>
+    <t>Class: Mammals</t>
+  </si>
+  <si>
+    <t>Rodentia</t>
+  </si>
+  <si>
+    <t>Order: Primates (infraclass eutheria , superorder euarchontoglires)</t>
+  </si>
+  <si>
+    <t>Order: Rodents (infraclass eutheria , superorder euarchontoglires)</t>
+  </si>
+  <si>
+    <t>Order: Diprodonts (infraclass metatheria , superorder marsupialia)</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Haplorrhini</t>
   </si>
 </sst>
 </file>
@@ -555,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -567,7 +574,7 @@
     <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,8 +584,11 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -588,8 +598,11 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -599,8 +612,11 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -610,8 +626,11 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -621,8 +640,11 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
@@ -633,10 +655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -645,7 +667,7 @@
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -655,8 +677,11 @@
       <c r="C1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -666,8 +691,11 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -677,8 +705,11 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -688,8 +719,11 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -699,19 +733,25 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -721,8 +761,11 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -732,8 +775,11 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -743,8 +789,11 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -754,8 +803,11 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -765,8 +817,11 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -776,8 +831,11 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -785,7 +843,10 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -798,45 +859,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -846,10 +920,73 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G6"/>
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -858,48 +995,60 @@
     <col min="2" max="2" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -907,12 +1056,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -921,37 +1070,46 @@
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -959,65 +1117,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/setsOfTaxaAndColors.xlsx
+++ b/setsOfTaxaAndColors.xlsx
@@ -4,21 +4,33 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="7965" tabRatio="614" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="23" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="24" r:id="rId9"/>
+    <sheet name="Sheet11" sheetId="26" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="25" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="16" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="17" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="18" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="19" r:id="rId15"/>
+    <sheet name="Sheet17" sheetId="21" r:id="rId16"/>
+    <sheet name="Sheet18" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
   <si>
     <t>Mycetozoa</t>
   </si>
@@ -47,30 +59,9 @@
     <t>Ciliates</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>Hyperotreti</t>
   </si>
   <si>
-    <t>Hyperoartia</t>
-  </si>
-  <si>
-    <t>Chondrichthyes</t>
-  </si>
-  <si>
     <t>Dipnoi</t>
   </si>
   <si>
@@ -101,24 +92,12 @@
     <t>Aves</t>
   </si>
   <si>
-    <t>Jawless hagfish</t>
-  </si>
-  <si>
-    <t>Jawless lamprey fish</t>
-  </si>
-  <si>
-    <t>Cartilaginous fish</t>
-  </si>
-  <si>
     <t>Bony, lobe-finned, lung fish</t>
   </si>
   <si>
     <t>Amphibians</t>
   </si>
   <si>
-    <t>Scaked reptiles</t>
-  </si>
-  <si>
     <t>Crocodylidae reptiles</t>
   </si>
   <si>
@@ -137,9 +116,6 @@
     <t>Birds</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>Insecta</t>
   </si>
   <si>
@@ -185,17 +161,311 @@
     <t>Class (birds)</t>
   </si>
   <si>
-    <t>Family (great apes)</t>
-  </si>
-  <si>
     <t>Bony, ray-finned, lung fish</t>
+  </si>
+  <si>
+    <t>cetacea</t>
+  </si>
+  <si>
+    <t>primates</t>
+  </si>
+  <si>
+    <t>carnivora</t>
+  </si>
+  <si>
+    <t>Cetacea</t>
+  </si>
+  <si>
+    <t>Carnivora</t>
+  </si>
+  <si>
+    <t>Salmoniformes</t>
+  </si>
+  <si>
+    <t>Zea</t>
+  </si>
+  <si>
+    <t>Lepidoptera</t>
+  </si>
+  <si>
+    <t>Butterflies and Moths</t>
+  </si>
+  <si>
+    <t>Coleoptera</t>
+  </si>
+  <si>
+    <t>Beetles</t>
+  </si>
+  <si>
+    <t>Hemiptera</t>
+  </si>
+  <si>
+    <t>Orthoptera</t>
+  </si>
+  <si>
+    <t>Grasshoppers, Crickets, Katydids</t>
+  </si>
+  <si>
+    <t>Odonata</t>
+  </si>
+  <si>
+    <t>Dragonflies</t>
+  </si>
+  <si>
+    <t>Diptera</t>
+  </si>
+  <si>
+    <t>Flies</t>
+  </si>
+  <si>
+    <t>Aprids, Hoppers</t>
+  </si>
+  <si>
+    <t>Hymenoptera</t>
+  </si>
+  <si>
+    <t>Sawflies</t>
+  </si>
+  <si>
+    <t>Dictyoptera</t>
+  </si>
+  <si>
+    <t>Ephemeroptera</t>
+  </si>
+  <si>
+    <t>Phasmatodea</t>
+  </si>
+  <si>
+    <t>Isoptera</t>
+  </si>
+  <si>
+    <t>1 1 0'</t>
+  </si>
+  <si>
+    <t>0 0 1'</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Reptiles</t>
+  </si>
+  <si>
+    <t>1 0 0'</t>
+  </si>
+  <si>
+    <t>0 1 0'</t>
+  </si>
+  <si>
+    <t>0    0.3448         0'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5172    0.5172    1.0000'</t>
+  </si>
+  <si>
+    <t>0    1.0000    0.7586'</t>
+  </si>
+  <si>
+    <t>0         0    0.4828'</t>
+  </si>
+  <si>
+    <t>0.8276    0.0690    1.0000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4828    0.1034    0.4138'</t>
+  </si>
+  <si>
+    <t>0.9655    0.0690    0.3793'</t>
+  </si>
+  <si>
+    <t>1.0000    0.7586    0.5172'</t>
+  </si>
+  <si>
+    <t>0 1 1'</t>
+  </si>
+  <si>
+    <t>0.82    0.6552   0</t>
+  </si>
+  <si>
+    <t>0.5862    0    0.3103'</t>
+  </si>
+  <si>
+    <t>1.0000    0.5276         0'</t>
+  </si>
+  <si>
+    <t>1.0000    0.1034    0.7241'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000    0.8276         0'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    0.3448         0'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5172    0.5172    1.0000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6207    0.3103    0.2759'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    1.0000    0.7586'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    0.5172    0.5862'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0         0    0.4828'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5862    0.8276    0.3103'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.9655    0.6207    0.8621'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0         0    0.1724'</t>
+  </si>
+  <si>
+    <t>1 0 1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6207    0.15    0.15'</t>
+  </si>
+  <si>
+    <t>.80   0.3  0.0'</t>
+  </si>
+  <si>
+    <t>Strepsirrihini</t>
+  </si>
+  <si>
+    <t>Haplorhini</t>
+  </si>
+  <si>
+    <t>Laurasiatheria</t>
+  </si>
+  <si>
+    <t>1 .5 .5'</t>
+  </si>
+  <si>
+    <t>0 .6 .7'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eutheria </t>
+  </si>
+  <si>
+    <t>Metatheria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototheria </t>
+  </si>
+  <si>
+    <t>Prototheria</t>
+  </si>
+  <si>
+    <t>Theria</t>
+  </si>
+  <si>
+    <t>Dermoptera</t>
+  </si>
+  <si>
+    <t>0 0 0'</t>
+  </si>
+  <si>
+    <t>Atlantogenata</t>
+  </si>
+  <si>
+    <t>Scandentia</t>
+  </si>
+  <si>
+    <t>Glires</t>
+  </si>
+  <si>
+    <t>Afrotheira</t>
+  </si>
+  <si>
+    <t>Xenartha</t>
+  </si>
+  <si>
+    <t>Adephaga</t>
+  </si>
+  <si>
+    <t>Archostemata</t>
+  </si>
+  <si>
+    <t>Myxophaga</t>
+  </si>
+  <si>
+    <t>Polyphaga</t>
+  </si>
+  <si>
+    <t>Cucujiformia</t>
+  </si>
+  <si>
+    <t>Anisoptera</t>
+  </si>
+  <si>
+    <t>Zygoptera</t>
+  </si>
+  <si>
+    <t>Epiprocta</t>
+  </si>
+  <si>
+    <t>Apocrita</t>
+  </si>
+  <si>
+    <t>Symphyta</t>
+  </si>
+  <si>
+    <t>ppocrita</t>
+  </si>
+  <si>
+    <t>symphyta</t>
+  </si>
+  <si>
+    <t>Haplorrhini</t>
+  </si>
+  <si>
+    <t>Strepsirrhini</t>
+  </si>
+  <si>
+    <t>prototheira</t>
+  </si>
+  <si>
+    <t>Eutheria</t>
+  </si>
+  <si>
+    <t>Afrotheria</t>
+  </si>
+  <si>
+    <t>Xenarthra</t>
+  </si>
+  <si>
+    <t>Plesiadapiformes</t>
+  </si>
+  <si>
+    <t>0.5517    0.852    0.4828'</t>
+  </si>
+  <si>
+    <t>.75   0.43  0.7241</t>
+  </si>
+  <si>
+    <t>Genus (zea)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Order (salmoniformes)</t>
+  </si>
+  <si>
+    <t>Family (hominidaes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +480,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,10 +513,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,74 +816,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
@@ -606,165 +908,782 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
+        <v>106</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
+        <v>107</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+        <v>109</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+        <v>115</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
+        <v>103</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -773,45 +1692,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -821,60 +1782,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -884,52 +1843,540 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/setsOfTaxaAndColors.xlsx
+++ b/setsOfTaxaAndColors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1485" windowWidth="17235" windowHeight="7635" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="1560" yWindow="1485" windowWidth="17235" windowHeight="7635" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1-allOrganisms" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="97">
   <si>
     <t>Metazoa</t>
   </si>
@@ -696,7 +696,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection activeCell="D18" sqref="D1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,8 +1009,11 @@
       <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="D1">
-        <v>1</v>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1026,8 +1029,11 @@
       <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1043,8 +1049,11 @@
       <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1060,8 +1069,11 @@
       <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1077,8 +1089,11 @@
       <c r="C5" t="s">
         <v>93</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1094,8 +1109,11 @@
       <c r="C6" t="s">
         <v>89</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1111,8 +1129,11 @@
       <c r="C7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1128,8 +1149,11 @@
       <c r="C8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1145,8 +1169,11 @@
       <c r="C9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="D9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1162,8 +1189,11 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1179,8 +1209,11 @@
       <c r="C11" t="s">
         <v>90</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1208,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1254,7 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1231,11 +1264,14 @@
       <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1245,11 +1281,14 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1259,8 +1298,11 @@
       <c r="C3" t="s">
         <v>95</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1270,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,46 +1324,46 @@
     <col min="2" max="2" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="E3" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1376,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,8 +1397,11 @@
       <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="D1">
-        <v>1</v>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
       </c>
       <c r="F1" s="5"/>
     </row>
@@ -1370,8 +1415,11 @@
       <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -1385,8 +1433,11 @@
       <c r="C3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -1400,8 +1451,11 @@
       <c r="C4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1415,8 +1469,11 @@
       <c r="C5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -1430,8 +1487,11 @@
       <c r="C6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -1445,8 +1505,11 @@
       <c r="C7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="7">
-        <v>1</v>
+      <c r="D7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,8 +1522,11 @@
       <c r="C8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
+      <c r="D8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,8 +1539,11 @@
       <c r="C9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
+      <c r="D9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1556,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1637,7 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>87</v>
       </c>
@@ -1578,11 +1647,14 @@
       <c r="C1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
@@ -1592,8 +1664,11 @@
       <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7">
-        <v>1</v>
+      <c r="D2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1603,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1690,7 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1629,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1643,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
@@ -1657,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>62</v>
       </c>
@@ -1671,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>81</v>
       </c>
@@ -1685,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -1699,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>65</v>
       </c>
@@ -1709,11 +1784,14 @@
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
@@ -1723,11 +1801,14 @@
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
@@ -1737,11 +1818,14 @@
       <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
@@ -1751,11 +1835,14 @@
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
@@ -1765,11 +1852,14 @@
       <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
@@ -1779,11 +1869,14 @@
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>71</v>
       </c>
@@ -1793,11 +1886,14 @@
       <c r="C13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -1807,11 +1903,14 @@
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
@@ -1821,11 +1920,14 @@
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>74</v>
       </c>
@@ -1835,11 +1937,14 @@
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>75</v>
       </c>
@@ -1849,11 +1954,14 @@
       <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -1863,11 +1971,14 @@
       <c r="C18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>77</v>
       </c>
@@ -1877,11 +1988,14 @@
       <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -1891,11 +2005,14 @@
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>79</v>
       </c>
@@ -1905,8 +2022,11 @@
       <c r="C21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="6">
-        <v>1</v>
+      <c r="D21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/setsOfTaxaAndColors.xlsx
+++ b/setsOfTaxaAndColors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1605" windowWidth="15795" windowHeight="6540" tabRatio="1000" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="1560" yWindow="1605" windowWidth="15795" windowHeight="6540" tabRatio="1000" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1-CGRfigures" sheetId="1" r:id="rId1"/>
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,12 +1666,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
